--- a/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0</t>
+    <t>2.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.3.0</t>
+    <t>2.2.0-test</t>
   </si>
   <si>
     <t>Name</t>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Publisher</t>
-  </si>
-  <si>
-    <t>Direktoratet for e-helse</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -255,10 +252,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -345,44 +342,42 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
         <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -404,28 +399,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B4" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -447,28 +442,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>31</v>
+      <c r="B4" t="s" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -490,28 +485,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>32</v>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -533,28 +528,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>33</v>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -576,28 +571,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -619,28 +614,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>35</v>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -662,28 +657,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>36</v>
+      <c r="B4" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -705,28 +700,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B3" t="s" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>37</v>
+      <c r="B4" t="s" s="2">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from unknown" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from unknown 2" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from unknown 3" r:id="rId6" sheetId="4"/>
-    <sheet name="Include from unknown 4" r:id="rId7" sheetId="5"/>
-    <sheet name="Include from unknown 5" r:id="rId8" sheetId="6"/>
-    <sheet name="Include from unknown 6" r:id="rId9" sheetId="7"/>
-    <sheet name="Include from unknown 7" r:id="rId10" sheetId="8"/>
-    <sheet name="Include from unknown 8" r:id="rId11" sheetId="9"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #2" r:id="rId6" sheetId="4"/>
+    <sheet name="Include #3" r:id="rId7" sheetId="5"/>
+    <sheet name="Include #4" r:id="rId8" sheetId="6"/>
+    <sheet name="Include #5" r:id="rId9" sheetId="7"/>
+    <sheet name="Include #6" r:id="rId10" sheetId="8"/>
+    <sheet name="Include #7" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-test</t>
+    <t>2.2.2-test</t>
   </si>
   <si>
     <t>Name</t>

--- a/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
+++ b/no-basis/CurrentBuild/ValueSet-no-basis-service-type.valueset.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.2-test</t>
+    <t>2.2.3-test</t>
   </si>
   <si>
     <t>Name</t>
